--- a/media/reports/Item.xlsx
+++ b/media/reports/Item.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,76 +451,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Item1</t>
+          <t>Blade</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>metre</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>Fitting Screw</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Pipe Cutting and Paint</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tubes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -531,17 +531,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tubes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -551,376 +551,426 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rubber-O-Ring</t>
+          <t>P/F Pipe Bati</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tubes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Item2</t>
+          <t>Side Knob (S/Max, Max, Farata)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>metre</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Item3</t>
+          <t>Base (Max, S/Max, Farata)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gram</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>227.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stand Assembly</t>
+          <t>Rubber Bush-Inner Pipe(Max)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Main Assembly</t>
+          <t>Rubber-O-Ring (Max)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Wires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>421.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Motor Assembly(Max, S/Max)</t>
+          <t>S/MAX 22" GUARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90.25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S/ Max Guard Assembly</t>
+          <t>S/Max Guard Ring/Belt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Wires</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Raw Materials</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>144.05</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fitting Screw</t>
+          <t>T/F Guard Show</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S/Max 22" Guard</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S/Max Guard Ring/Belt</t>
+          <t>Pink Tape 24mm X 55 Mts</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.05</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T/F Guard Show</t>
+          <t>Pink Tape 6mm X 55 Mts</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Side Knob (S/Max, Max, Farata)</t>
+          <t>MTR_SHAFT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fr. Bearing</t>
+          <t>MTR_SWITCH KNOB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.75</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MTR_Ring</t>
+          <t>Fr. BEARING</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Pcs</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>65.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fan</t>
+          <t>PIPE ASSEMBLY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ItemType1</t>
+          <t>Tool Part</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Category 1</t>
+          <t>Finish Goods</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pieces</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>STATOR STAMPING_SUPER MAX FAN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tool Part</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Finish Goods</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pcs</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>STATOR BINDING COST</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tool Part</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Finish Goods</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Pcs</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>
